--- a/Data_preparation/datasets/final_data/Iron_Mountain_Incorporated.xlsx
+++ b/Data_preparation/datasets/final_data/Iron_Mountain_Incorporated.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="44">
   <si>
     <t>Ticker</t>
   </si>
@@ -146,69 +146,6 @@
   </si>
   <si>
     <t>USD</t>
-  </si>
-  <si>
-    <t>2337 TT</t>
-  </si>
-  <si>
-    <t>005930 KS</t>
-  </si>
-  <si>
-    <t>CCC LN</t>
-  </si>
-  <si>
-    <t>UBI FP</t>
-  </si>
-  <si>
-    <t>IFX GR</t>
-  </si>
-  <si>
-    <t>XRO AU</t>
-  </si>
-  <si>
-    <t>AMP IM</t>
-  </si>
-  <si>
-    <t>6701 JP</t>
-  </si>
-  <si>
-    <t>2353 TT</t>
-  </si>
-  <si>
-    <t>5803 JP</t>
-  </si>
-  <si>
-    <t>TIETO FH</t>
-  </si>
-  <si>
-    <t>2344 TT</t>
-  </si>
-  <si>
-    <t>3665 TT</t>
-  </si>
-  <si>
-    <t>WKL NA</t>
-  </si>
-  <si>
-    <t>3661 TT</t>
-  </si>
-  <si>
-    <t>EXPN LN</t>
-  </si>
-  <si>
-    <t>6954 JP</t>
-  </si>
-  <si>
-    <t>ENR GR</t>
-  </si>
-  <si>
-    <t>3443 TT</t>
-  </si>
-  <si>
-    <t>6526 JP</t>
-  </si>
-  <si>
-    <t>6588 JP</t>
   </si>
 </sst>
 </file>
@@ -715,22 +652,22 @@
         <v>42094</v>
       </c>
       <c r="D2">
-        <v>11.40454674014372</v>
+        <v>20.0446039456289</v>
       </c>
       <c r="E2">
-        <v>11.25329399108887</v>
+        <v>18.9407787322998</v>
       </c>
       <c r="F2">
-        <v>11.646553599544</v>
+        <v>21.13744765784818</v>
       </c>
       <c r="G2">
-        <v>10.79953140113752</v>
+        <v>18.83094486704104</v>
       </c>
       <c r="H2">
-        <v>1853869000</v>
+        <v>295348225</v>
       </c>
       <c r="I2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J2">
         <v>7663426013</v>
@@ -843,22 +780,22 @@
         <v>42185</v>
       </c>
       <c r="D3">
-        <v>19705.44771228903</v>
+        <v>17.2532324070162</v>
       </c>
       <c r="E3">
-        <v>18415.580078125</v>
+        <v>16.75152206420898</v>
       </c>
       <c r="F3">
-        <v>20373.69239022943</v>
+        <v>17.97792347044282</v>
       </c>
       <c r="G3">
-        <v>18260.1743390691</v>
+        <v>15.7982745393973</v>
       </c>
       <c r="H3">
-        <v>5876745450</v>
+        <v>295348225</v>
       </c>
       <c r="I3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J3">
         <v>6527216191</v>
@@ -971,22 +908,22 @@
         <v>42277</v>
       </c>
       <c r="D4">
-        <v>754.2077893284245</v>
+        <v>17.6141052132338</v>
       </c>
       <c r="E4">
-        <v>754.7066040039062</v>
+        <v>17.37033081054688</v>
       </c>
       <c r="F4">
-        <v>768.1746002419138</v>
+        <v>18.33975804209759</v>
       </c>
       <c r="G4">
-        <v>727.601031587557</v>
+        <v>16.950812498533</v>
       </c>
       <c r="H4">
-        <v>104878138</v>
+        <v>295348225</v>
       </c>
       <c r="I4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="J4">
         <v>6539813028</v>
@@ -1090,22 +1027,22 @@
         <v>42369</v>
       </c>
       <c r="D5">
-        <v>27.125</v>
+        <v>15.45724950684429</v>
       </c>
       <c r="E5">
-        <v>25.34499931335449</v>
+        <v>15.88405513763428</v>
       </c>
       <c r="F5">
-        <v>27.125</v>
+        <v>15.94749832592341</v>
       </c>
       <c r="G5">
-        <v>22.22999954223633</v>
+        <v>13.63467833245808</v>
       </c>
       <c r="H5">
-        <v>134598631</v>
+        <v>295348225</v>
       </c>
       <c r="I5" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="J5">
         <v>5703240450</v>
@@ -1218,22 +1155,22 @@
         <v>42460</v>
       </c>
       <c r="D6">
-        <v>11.19978539931328</v>
+        <v>19.49847309005985</v>
       </c>
       <c r="E6">
-        <v>11.3136043548584</v>
+        <v>21.41549110412598</v>
       </c>
       <c r="F6">
-        <v>11.83261851426581</v>
+        <v>21.46825314988352</v>
       </c>
       <c r="G6">
-        <v>10.98580520713185</v>
+        <v>18.83015533469323</v>
       </c>
       <c r="H6">
-        <v>1299391231</v>
+        <v>295348225</v>
       </c>
       <c r="I6" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J6">
         <v>7172243130</v>
@@ -1346,22 +1283,22 @@
         <v>42551</v>
       </c>
       <c r="D7">
-        <v>17.48999977111816</v>
+        <v>23.71669827790753</v>
       </c>
       <c r="E7">
-        <v>18.72999954223633</v>
+        <v>24.48309516906738</v>
       </c>
       <c r="F7">
-        <v>18.8700008392334</v>
+        <v>24.61973920708037</v>
       </c>
       <c r="G7">
-        <v>16.79999923706055</v>
+        <v>23.30676616386857</v>
       </c>
       <c r="H7">
-        <v>168262866</v>
+        <v>295348225</v>
       </c>
       <c r="I7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="J7">
         <v>8442054055</v>
@@ -1462,22 +1399,22 @@
         <v>42643</v>
       </c>
       <c r="D8">
-        <v>8.69158867261447</v>
+        <v>22.5610830668137</v>
       </c>
       <c r="E8">
-        <v>9.01453971862793</v>
+        <v>20.28753280639648</v>
       </c>
       <c r="F8">
-        <v>9.435779708844802</v>
+        <v>22.5610830668137</v>
       </c>
       <c r="G8">
-        <v>8.331194091753382</v>
+        <v>19.57779977266682</v>
       </c>
       <c r="H8">
-        <v>219937482</v>
+        <v>295348225</v>
       </c>
       <c r="I8" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J8">
         <v>9879721572</v>
@@ -1590,22 +1527,22 @@
         <v>42735</v>
       </c>
       <c r="D9">
-        <v>534.967198865167</v>
+        <v>20.05731240545477</v>
       </c>
       <c r="E9">
-        <v>450.4078674316406</v>
+        <v>21.8851490020752</v>
       </c>
       <c r="F9">
-        <v>571.2069123366783</v>
+        <v>22.1785808938808</v>
       </c>
       <c r="G9">
-        <v>445.230765507139</v>
+        <v>19.72720065267744</v>
       </c>
       <c r="H9">
-        <v>1333460157</v>
+        <v>295348225</v>
       </c>
       <c r="I9" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J9">
         <v>8556785843</v>
@@ -1718,22 +1655,22 @@
         <v>42825</v>
       </c>
       <c r="D10">
-        <v>9.769573715804048</v>
+        <v>22.08710231211101</v>
       </c>
       <c r="E10">
-        <v>9.667807579040527</v>
+        <v>21.59627723693848</v>
       </c>
       <c r="F10">
-        <v>9.973106636344406</v>
+        <v>22.80159463014999</v>
       </c>
       <c r="G10">
-        <v>9.396430782995594</v>
+        <v>21.47823168989646</v>
       </c>
       <c r="H10">
-        <v>3006208000</v>
+        <v>295348225</v>
       </c>
       <c r="I10" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J10">
         <v>9407042678</v>
@@ -1846,22 +1783,22 @@
         <v>42916</v>
       </c>
       <c r="D11">
-        <v>804.4902529480636</v>
+        <v>21.87875785647262</v>
       </c>
       <c r="E11">
-        <v>793.3997192382812</v>
+        <v>23.00268745422364</v>
       </c>
       <c r="F11">
-        <v>875.2990450951361</v>
+        <v>23.18580028335986</v>
       </c>
       <c r="G11">
-        <v>749.0375843991515</v>
+        <v>20.78639644607079</v>
       </c>
       <c r="H11">
-        <v>275900103</v>
+        <v>295348225</v>
       </c>
       <c r="I11" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="J11">
         <v>9075043696</v>
@@ -1962,22 +1899,22 @@
         <v>43008</v>
       </c>
       <c r="D12">
-        <v>16.30785379979687</v>
+        <v>24.86245901952425</v>
       </c>
       <c r="E12">
-        <v>16.63021850585938</v>
+        <v>25.61159706115723</v>
       </c>
       <c r="F12">
-        <v>17.91335631168335</v>
+        <v>26.3607351027902</v>
       </c>
       <c r="G12">
-        <v>16.30785379979687</v>
+        <v>24.01727406939481</v>
       </c>
       <c r="H12">
-        <v>118401578</v>
+        <v>295348225</v>
       </c>
       <c r="I12" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="J12">
         <v>10284798308</v>
@@ -2090,22 +2027,22 @@
         <v>43100</v>
       </c>
       <c r="D13">
-        <v>21.06097328157131</v>
+        <v>24.57992771614078</v>
       </c>
       <c r="E13">
-        <v>21.5913028717041</v>
+        <v>22.77869987487793</v>
       </c>
       <c r="F13">
-        <v>23.51893322585045</v>
+        <v>24.67096409040844</v>
       </c>
       <c r="G13">
-        <v>20.76122322733137</v>
+        <v>21.82931699957922</v>
       </c>
       <c r="H13">
-        <v>1299391231</v>
+        <v>295348225</v>
       </c>
       <c r="I13" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J13">
         <v>10071536557</v>
@@ -2218,22 +2155,22 @@
         <v>43190</v>
       </c>
       <c r="D14">
-        <v>15.95295863791121</v>
+        <v>21.75927963688583</v>
       </c>
       <c r="E14">
-        <v>14.81924629211426</v>
+        <v>22.46759796142578</v>
       </c>
       <c r="F14">
-        <v>16.27687689615273</v>
+        <v>23.01704251657992</v>
       </c>
       <c r="G14">
-        <v>13.44259525263616</v>
+        <v>21.28265580347533</v>
       </c>
       <c r="H14">
-        <v>4500000193</v>
+        <v>295348225</v>
       </c>
       <c r="I14" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="J14">
         <v>9375337500</v>
@@ -2346,22 +2283,22 @@
         <v>43281</v>
       </c>
       <c r="D15">
-        <v>32.36709687656226</v>
+        <v>23.50203415467352</v>
       </c>
       <c r="E15">
-        <v>31.62302398681641</v>
+        <v>23.6434497833252</v>
       </c>
       <c r="F15">
-        <v>33.33438902755955</v>
+        <v>24.8825255581116</v>
       </c>
       <c r="G15">
-        <v>30.02327147189045</v>
+        <v>22.22928579023469</v>
       </c>
       <c r="H15">
-        <v>1853869000</v>
+        <v>295348225</v>
       </c>
       <c r="I15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J15">
         <v>10010197314</v>
@@ -2474,22 +2411,22 @@
         <v>43373</v>
       </c>
       <c r="D16">
-        <v>118.8699784743474</v>
+        <v>23.69691008199242</v>
       </c>
       <c r="E16">
-        <v>131.6345367431641</v>
+        <v>20.95212173461914</v>
       </c>
       <c r="F16">
-        <v>137.6179242105138</v>
+        <v>23.90225540737147</v>
       </c>
       <c r="G16">
-        <v>98.52645983921131</v>
+        <v>20.68517124496189</v>
       </c>
       <c r="H16">
-        <v>193969420</v>
+        <v>295348225</v>
       </c>
       <c r="I16" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="J16">
         <v>9877752429</v>
@@ -2602,22 +2539,22 @@
         <v>43465</v>
       </c>
       <c r="D17">
-        <v>178.7038649689565</v>
+        <v>22.29328889142747</v>
       </c>
       <c r="E17">
-        <v>142.8035278320312</v>
+        <v>25.91594886779785</v>
       </c>
       <c r="F17">
-        <v>181.4961066283612</v>
+        <v>25.93684797571208</v>
       </c>
       <c r="G17">
-        <v>142.8035278320312</v>
+        <v>22.00068942157613</v>
       </c>
       <c r="H17">
-        <v>193969420</v>
+        <v>295348225</v>
       </c>
       <c r="I17" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="J17">
         <v>9276377042</v>
@@ -2730,22 +2667,22 @@
         <v>43555</v>
       </c>
       <c r="D18">
-        <v>1096.205709613841</v>
+        <v>25.14634234107422</v>
       </c>
       <c r="E18">
-        <v>1205.027587890625</v>
+        <v>23.02659034729004</v>
       </c>
       <c r="F18">
-        <v>1294.880514908153</v>
+        <v>25.98289973084963</v>
       </c>
       <c r="G18">
-        <v>1035.305392413072</v>
+        <v>22.65793770904856</v>
       </c>
       <c r="H18">
-        <v>104878138</v>
+        <v>295348225</v>
       </c>
       <c r="I18" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="J18">
         <v>10154527545</v>
@@ -2858,22 +2795,22 @@
         <v>43646</v>
       </c>
       <c r="D19">
-        <v>40544.09822043826</v>
+        <v>22.83045914249054</v>
       </c>
       <c r="E19">
-        <v>38831.5703125</v>
+        <v>21.25494766235352</v>
       </c>
       <c r="F19">
-        <v>40715.35101123209</v>
+        <v>23.18458903315062</v>
       </c>
       <c r="G19">
-        <v>37975.30635853087</v>
+        <v>21.16099576257181</v>
       </c>
       <c r="H19">
-        <v>5876745450</v>
+        <v>295348225</v>
       </c>
       <c r="I19" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J19">
         <v>8979364063</v>
@@ -2977,22 +2914,22 @@
         <v>43738</v>
       </c>
       <c r="D20">
-        <v>60.76406463044493</v>
+        <v>23.71746105764698</v>
       </c>
       <c r="E20">
-        <v>59.60836791992188</v>
+        <v>24.13691329956055</v>
       </c>
       <c r="F20">
-        <v>61.14327406172586</v>
+        <v>25.34375854346379</v>
       </c>
       <c r="G20">
-        <v>56.1412984537168</v>
+        <v>23.27593186483912</v>
       </c>
       <c r="H20">
-        <v>229140423</v>
+        <v>295348225</v>
       </c>
       <c r="I20" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="J20">
         <v>9299389608</v>
@@ -3105,22 +3042,22 @@
         <v>43830</v>
       </c>
       <c r="D21">
-        <v>222.8461507933775</v>
+        <v>23.92713436942469</v>
       </c>
       <c r="E21">
-        <v>219.044937133789</v>
+        <v>23.70961570739746</v>
       </c>
       <c r="F21">
-        <v>252.7807083626373</v>
+        <v>24.08464916594844</v>
       </c>
       <c r="G21">
-        <v>203.3649307879864</v>
+        <v>22.65202146873482</v>
       </c>
       <c r="H21">
-        <v>80995217</v>
+        <v>295348225</v>
       </c>
       <c r="I21" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="J21">
         <v>9151260349</v>
@@ -3233,22 +3170,22 @@
         <v>43921</v>
       </c>
       <c r="D22">
-        <v>12.41129859768217</v>
+        <v>17.63904590095471</v>
       </c>
       <c r="E22">
-        <v>16.23237037658691</v>
+        <v>18.5682258605957</v>
       </c>
       <c r="F22">
-        <v>17.16704825563687</v>
+        <v>21.81651311862556</v>
       </c>
       <c r="G22">
-        <v>12.05887897968325</v>
+        <v>16.12625054388621</v>
       </c>
       <c r="H22">
-        <v>1299391231</v>
+        <v>295348225</v>
       </c>
       <c r="I22" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J22">
         <v>6838769374</v>
@@ -3361,22 +3298,22 @@
         <v>44012</v>
       </c>
       <c r="D23">
-        <v>970.3393129824782</v>
+        <v>20.64367338234148</v>
       </c>
       <c r="E23">
-        <v>1088.628295898438</v>
+        <v>22.1440315246582</v>
       </c>
       <c r="F23">
-        <v>1118.200541627427</v>
+        <v>22.34041349614757</v>
       </c>
       <c r="G23">
-        <v>950.0083940437976</v>
+        <v>20.09380326286104</v>
       </c>
       <c r="H23">
-        <v>1333460157</v>
+        <v>295348225</v>
       </c>
       <c r="I23" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J23">
         <v>7513742463</v>
@@ -3477,22 +3414,22 @@
         <v>44104</v>
       </c>
       <c r="D24">
-        <v>12.7733873356874</v>
+        <v>21.53049713896848</v>
       </c>
       <c r="E24">
-        <v>15.52035236358643</v>
+        <v>20.9047966003418</v>
       </c>
       <c r="F24">
-        <v>17.30587870681586</v>
+        <v>23.01452946735444</v>
       </c>
       <c r="G24">
-        <v>12.68182262753309</v>
+        <v>20.66414337088933</v>
       </c>
       <c r="H24">
-        <v>4500000193</v>
+        <v>295348225</v>
       </c>
       <c r="I24" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="J24">
         <v>7719493466</v>
@@ -3605,22 +3542,22 @@
         <v>44196</v>
       </c>
       <c r="D25">
-        <v>32.50755730601569</v>
+        <v>24.56592209633205</v>
       </c>
       <c r="E25">
-        <v>31.25653076171875</v>
+        <v>27.57115173339844</v>
       </c>
       <c r="F25">
-        <v>32.99459606093095</v>
+        <v>33.83546311745052</v>
       </c>
       <c r="G25">
-        <v>30.77904021483708</v>
+        <v>22.69891145474148</v>
       </c>
       <c r="H25">
-        <v>219937482</v>
+        <v>295348225</v>
       </c>
       <c r="I25" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J25">
         <v>8495291251</v>
@@ -3733,22 +3670,22 @@
         <v>44286</v>
       </c>
       <c r="D26">
-        <v>2516.34996159507</v>
+        <v>30.99653985381529</v>
       </c>
       <c r="E26">
-        <v>2790.17041015625</v>
+        <v>33.41163635253906</v>
       </c>
       <c r="F26">
-        <v>2807.159270103477</v>
+        <v>34.07786975988178</v>
       </c>
       <c r="G26">
-        <v>2503.838146397838</v>
+        <v>30.46355312794111</v>
       </c>
       <c r="H26">
-        <v>913159452</v>
+        <v>295348225</v>
       </c>
       <c r="I26" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="J26">
         <v>10674469167</v>
@@ -3861,22 +3798,22 @@
         <v>44377</v>
       </c>
       <c r="D27">
-        <v>40.06459571156605</v>
+        <v>35.87349989160018</v>
       </c>
       <c r="E27">
-        <v>40.04537963867188</v>
+        <v>36.93704223632812</v>
       </c>
       <c r="F27">
-        <v>40.5353766696543</v>
+        <v>38.02590924111247</v>
       </c>
       <c r="G27">
-        <v>36.25990124070713</v>
+        <v>35.43457668300683</v>
       </c>
       <c r="H27">
-        <v>219937482</v>
+        <v>295348225</v>
       </c>
       <c r="I27" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J27">
         <v>12219099771</v>
@@ -3977,22 +3914,22 @@
         <v>44469</v>
       </c>
       <c r="D28">
-        <v>51.72000122070312</v>
+        <v>37.33379984092087</v>
       </c>
       <c r="E28">
-        <v>45.22999954223633</v>
+        <v>39.03584289550781</v>
       </c>
       <c r="F28">
-        <v>53.2400016784668</v>
+        <v>39.97667368221356</v>
       </c>
       <c r="G28">
-        <v>43.54000091552734</v>
+        <v>36.09361573186261</v>
       </c>
       <c r="H28">
-        <v>134598631</v>
+        <v>295348225</v>
       </c>
       <c r="I28" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="J28">
         <v>12577050643</v>
@@ -4105,22 +4042,22 @@
         <v>44561</v>
       </c>
       <c r="D29">
-        <v>98.06110899770088</v>
+        <v>45.44514680828665</v>
       </c>
       <c r="E29">
-        <v>84.43734741210938</v>
+        <v>39.77207946777344</v>
       </c>
       <c r="F29">
-        <v>98.06110899770088</v>
+        <v>45.47112925344577</v>
       </c>
       <c r="G29">
-        <v>80.56356001156674</v>
+        <v>36.42020857934622</v>
       </c>
       <c r="H29">
-        <v>229140423</v>
+        <v>295348225</v>
       </c>
       <c r="I29" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="J29">
         <v>15152125230</v>
@@ -4233,22 +4170,22 @@
         <v>44651</v>
       </c>
       <c r="D30">
-        <v>564.8420934999623</v>
+        <v>48.73578779424142</v>
       </c>
       <c r="E30">
-        <v>567.5840454101562</v>
+        <v>47.11359786987305</v>
       </c>
       <c r="F30">
-        <v>568.4980293802209</v>
+        <v>51.39266747505702</v>
       </c>
       <c r="G30">
-        <v>487.1534560444658</v>
+        <v>46.99083823834282</v>
       </c>
       <c r="H30">
-        <v>275900103</v>
+        <v>295348225</v>
       </c>
       <c r="I30" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="J30">
         <v>16059486894</v>
@@ -4361,22 +4298,22 @@
         <v>44742</v>
       </c>
       <c r="D31">
-        <v>990.9535599144536</v>
+        <v>43.2299190760566</v>
       </c>
       <c r="E31">
-        <v>932.830322265625</v>
+        <v>43.07004165649414</v>
       </c>
       <c r="F31">
-        <v>1065.275076908038</v>
+        <v>44.24249865535388</v>
       </c>
       <c r="G31">
-        <v>932.830322265625</v>
+        <v>39.55266727160468</v>
       </c>
       <c r="H31">
-        <v>1333460157</v>
+        <v>295348225</v>
       </c>
       <c r="I31" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J31">
         <v>14147441285</v>
@@ -4489,22 +4426,22 @@
         <v>44834</v>
       </c>
       <c r="D32">
-        <v>3829.951036061672</v>
+        <v>40.15734962697366</v>
       </c>
       <c r="E32">
-        <v>3718.19677734375</v>
+        <v>44.98162078857422</v>
       </c>
       <c r="F32">
-        <v>4026.941593801738</v>
+        <v>45.37690442138325</v>
       </c>
       <c r="G32">
-        <v>3570.453859038701</v>
+        <v>39.42966488893347</v>
       </c>
       <c r="H32">
-        <v>933160187</v>
+        <v>295348225</v>
       </c>
       <c r="I32" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="J32">
         <v>12781416196</v>
@@ -4617,22 +4554,22 @@
         <v>44926</v>
       </c>
       <c r="D33">
-        <v>17.67499923706055</v>
+        <v>45.67030079147715</v>
       </c>
       <c r="E33">
-        <v>19.1200008392334</v>
+        <v>49.5859375</v>
       </c>
       <c r="F33">
-        <v>19.76000022888184</v>
+        <v>50.08561186568342</v>
       </c>
       <c r="G33">
-        <v>17.08499908447266</v>
+        <v>44.44382356772381</v>
       </c>
       <c r="H33">
-        <v>795535712</v>
+        <v>295348225</v>
       </c>
       <c r="I33" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="J33">
         <v>14492094744</v>
@@ -4745,22 +4682,22 @@
         <v>45016</v>
       </c>
       <c r="D34">
-        <v>4646.163088703966</v>
+        <v>48.50248646405817</v>
       </c>
       <c r="E34">
-        <v>4397.0390625</v>
+        <v>50.78236389160156</v>
       </c>
       <c r="F34">
-        <v>4647.12125803552</v>
+        <v>51.04895943567091</v>
       </c>
       <c r="G34">
-        <v>4224.568582820331</v>
+        <v>46.9672501835215</v>
       </c>
       <c r="H34">
-        <v>933160187</v>
+        <v>295348225</v>
       </c>
       <c r="I34" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="J34">
         <v>15391313762</v>
@@ -4873,22 +4810,22 @@
         <v>45107</v>
       </c>
       <c r="D35">
-        <v>299.8867087280755</v>
+        <v>52.48008746235487</v>
       </c>
       <c r="E35">
-        <v>279.6763610839844</v>
+        <v>57.07186508178711</v>
       </c>
       <c r="F35">
-        <v>311.3327623979251</v>
+        <v>58.44753824296802</v>
       </c>
       <c r="G35">
-        <v>274.7053735580706</v>
+        <v>52.31277552625755</v>
       </c>
       <c r="H35">
-        <v>193969420</v>
+        <v>295348225</v>
       </c>
       <c r="I35" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="J35">
         <v>16570034201</v>
@@ -4992,22 +4929,22 @@
         <v>45199</v>
       </c>
       <c r="D36">
-        <v>1366.269412157012</v>
+        <v>55.69396814178256</v>
       </c>
       <c r="E36">
-        <v>1400.426147460938</v>
+        <v>55.47795486450195</v>
       </c>
       <c r="F36">
-        <v>1722.475366040805</v>
+        <v>58.53971637298933</v>
       </c>
       <c r="G36">
-        <v>1356.510344927319</v>
+        <v>53.07362709449612</v>
       </c>
       <c r="H36">
-        <v>134011000</v>
+        <v>295348225</v>
       </c>
       <c r="I36" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="J36">
         <v>17350625715</v>
@@ -5120,22 +5057,22 @@
         <v>45291</v>
       </c>
       <c r="D37">
-        <v>124.5980016318655</v>
+        <v>66.28448134583748</v>
       </c>
       <c r="E37">
-        <v>132.1493988037109</v>
+        <v>64.02758026123047</v>
       </c>
       <c r="F37">
-        <v>136.1187273141222</v>
+        <v>66.43620171514202</v>
       </c>
       <c r="G37">
-        <v>122.5649354352075</v>
+        <v>61.33448040183399</v>
       </c>
       <c r="H37">
-        <v>229140423</v>
+        <v>295348225</v>
       </c>
       <c r="I37" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="J37">
         <v>20433429969</v>
@@ -5248,22 +5185,22 @@
         <v>45382</v>
       </c>
       <c r="D38">
-        <v>4156.728619089413</v>
+        <v>76.6834734775279</v>
       </c>
       <c r="E38">
-        <v>4553.76318359375</v>
+        <v>74.11174011230469</v>
       </c>
       <c r="F38">
-        <v>5096.40944657156</v>
+        <v>76.845997479876</v>
       </c>
       <c r="G38">
-        <v>3750.957352676668</v>
+        <v>70.29716713070502</v>
       </c>
       <c r="H38">
-        <v>175134528</v>
+        <v>295348225</v>
       </c>
       <c r="I38" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="J38">
         <v>23443431330</v>
@@ -5376,22 +5313,22 @@
         <v>45473</v>
       </c>
       <c r="D39">
-        <v>2890.935410112718</v>
+        <v>86.00899313504182</v>
       </c>
       <c r="E39">
-        <v>2691.009033203125</v>
+        <v>98.78031158447266</v>
       </c>
       <c r="F39">
-        <v>3014.889763796666</v>
+        <v>99.59899206178066</v>
       </c>
       <c r="G39">
-        <v>2519.072349060875</v>
+        <v>85.30589289350355</v>
       </c>
       <c r="H39">
-        <v>104878138</v>
+        <v>295348225</v>
       </c>
       <c r="I39" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="J39">
         <v>26270608228</v>
@@ -5495,22 +5432,22 @@
         <v>45565</v>
       </c>
       <c r="D40">
-        <v>31.23959479848472</v>
+        <v>115.3187905390577</v>
       </c>
       <c r="E40">
-        <v>28.76222801208496</v>
+        <v>119.902473449707</v>
       </c>
       <c r="F40">
-        <v>31.50219696309808</v>
+        <v>126.2110917081674</v>
       </c>
       <c r="G40">
-        <v>28.63340577082776</v>
+        <v>112.5666481624115</v>
       </c>
       <c r="H40">
-        <v>1299391231</v>
+        <v>295348225</v>
       </c>
       <c r="I40" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J40">
         <v>34857096204</v>
@@ -5611,22 +5548,22 @@
         <v>45657</v>
       </c>
       <c r="D41">
-        <v>2476.994723535176</v>
+        <v>102.6695405329658</v>
       </c>
       <c r="E41">
-        <v>2384.00341796875</v>
+        <v>99.06094360351562</v>
       </c>
       <c r="F41">
-        <v>2758.415779854624</v>
+        <v>109.4088482530502</v>
       </c>
       <c r="G41">
-        <v>2325.761495008725</v>
+        <v>94.7891442315747</v>
       </c>
       <c r="H41">
-        <v>175134528</v>
+        <v>295348225</v>
       </c>
       <c r="I41" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="J41">
         <v>30845619596</v>
@@ -5739,22 +5676,22 @@
         <v>45747</v>
       </c>
       <c r="D42">
-        <v>3590.70430246099</v>
+        <v>86.90635032474394</v>
       </c>
       <c r="E42">
-        <v>3714.694091796875</v>
+        <v>88.25472259521484</v>
       </c>
       <c r="F42">
-        <v>3714.694091796875</v>
+        <v>88.72714998426342</v>
       </c>
       <c r="G42">
-        <v>3048.748932944461</v>
+        <v>71.18840612535941</v>
       </c>
       <c r="H42">
-        <v>913159452</v>
+        <v>295348225</v>
       </c>
       <c r="I42" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="J42">
         <v>25273467466</v>
@@ -5867,22 +5804,22 @@
         <v>45838</v>
       </c>
       <c r="D43">
-        <v>2937</v>
+        <v>101.1917197881852</v>
       </c>
       <c r="E43">
-        <v>3025</v>
+        <v>96.56955718994141</v>
       </c>
       <c r="F43">
-        <v>3125</v>
+        <v>102.1637667235841</v>
       </c>
       <c r="G43">
-        <v>2890</v>
+        <v>95.54792073349807</v>
       </c>
       <c r="H43">
-        <v>52985470</v>
+        <v>295348225</v>
       </c>
       <c r="I43" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="J43">
         <v>30262652413</v>
